--- a/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2020-3.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2020-3.xlsx
@@ -67,12 +67,12 @@
     <t>Otros Voluntarios</t>
   </si>
   <si>
+    <t>Medida Prejudicial Precautoria</t>
+  </si>
+  <si>
     <t>Factura, Notificación De</t>
   </si>
   <si>
-    <t>Medida Prejudicial Precautoria</t>
-  </si>
-  <si>
     <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
   </si>
   <si>
@@ -109,31 +109,31 @@
     <t>Nombre, Autorización Cambio De</t>
   </si>
   <si>
+    <t>Contrato, Resolución De</t>
+  </si>
+  <si>
+    <t>Mutuo, Cobro Ejecutivo De</t>
+  </si>
+  <si>
+    <t>Registro Civil, Rectificación Partidas</t>
+  </si>
+  <si>
     <t>Lesión Enorme, Acción De Rescisión Por</t>
   </si>
   <si>
-    <t>Mutuo, Cobro Ejecutivo De</t>
-  </si>
-  <si>
-    <t>Registro Civil, Rectificación Partidas</t>
+    <t>Otros Ejecutivos</t>
+  </si>
+  <si>
+    <t>Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
+  </si>
+  <si>
+    <t>Arbitro Y Derivados, Designacion De</t>
+  </si>
+  <si>
+    <t>Ley 20.609 Contra La Discriminación</t>
   </si>
   <si>
     <t>Hipotecaria, Acción Según Ley De Bancos</t>
-  </si>
-  <si>
-    <t>Otros Ejecutivos</t>
-  </si>
-  <si>
-    <t>Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
-  </si>
-  <si>
-    <t>Arbitro Y Derivados, Designacion De</t>
-  </si>
-  <si>
-    <t>Ley 20.609 Contra La Discriminación</t>
-  </si>
-  <si>
-    <t>Contrato, Resolución De</t>
   </si>
   <si>
     <t>Pesos, Cobro De</t>
